--- a/Windows Function Data.xlsx
+++ b/Windows Function Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Data Analyst Practice\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F3ACCAD-FE76-4C08-968C-055E2BC6D026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A803C6-178C-42CF-AF1D-B38D4CC9779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-4690" windowWidth="38620" windowHeight="21220" xr2:uid="{6E66BCA0-82F5-4DE5-923E-9336DB2EDA94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -84,14 +84,40 @@
   </si>
   <si>
     <t>James</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Using Rank()</t>
+  </si>
+  <si>
+    <t>Using DENSE_RANK()</t>
+  </si>
+  <si>
+    <t>Dense_Ranking</t>
+  </si>
+  <si>
+    <t>Using SUM()</t>
+  </si>
+  <si>
+    <t>Subject_Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -119,8 +145,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7617FD12-5794-4C77-95E8-F2F18766B008}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -485,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -496,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -507,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -518,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -529,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -540,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -551,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -562,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -572,8 +620,9 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -582,6 +631,421 @@
       </c>
       <c r="C11" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>80</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8">
+        <v>95</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="8">
+        <v>77</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="8">
+        <v>72</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8">
+        <v>63</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="8">
+        <v>62</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="8">
+        <v>100</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8">
+        <v>80</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="8">
+        <v>75</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="8">
+        <v>80</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="8">
+        <v>60</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="8">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
